--- a/Team Page (Responses).xlsx
+++ b/Team Page (Responses).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssingh17\Desktop\jobie-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CD5F0-3E33-4249-84D0-B788D4263ACB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Timestamp</t>
   </si>
@@ -122,28 +131,52 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1ld7Y66lwMzMHQo8wv37YV7ryAHzmbbbk</t>
+  </si>
+  <si>
+    <t>Maurice Adaryll Elmore JrCIS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17q-_Ny2vynyVMu2mnUOlSfpNn-LTkG0K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,43 +184,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -377,26 +418,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="21.57"/>
+    <col min="1" max="11" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,9 +457,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44081.78871842593</v>
+        <v>44081.788718425931</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -430,9 +474,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44082.41502616898</v>
+        <v>44082.415026168979</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -447,7 +491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44082.449456365735</v>
       </c>
@@ -464,9 +508,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44082.45468805556</v>
+        <v>44082.454688055557</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -475,15 +519,15 @@
         <v>6</v>
       </c>
       <c r="D5" s="3">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44082.47541841435</v>
+        <v>44082.475418414353</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
@@ -492,13 +536,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="3">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44082.521605497685</v>
       </c>
@@ -509,15 +553,15 @@
         <v>21</v>
       </c>
       <c r="D7" s="3">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44082.52715180555</v>
+        <v>44082.527151805552</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>23</v>
@@ -526,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="D8" s="3">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44082.527202881945</v>
       </c>
@@ -546,9 +590,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44082.53007616899</v>
+        <v>44082.530076168987</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>27</v>
@@ -557,13 +601,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44082.53352675926</v>
       </c>
@@ -574,13 +618,13 @@
         <v>21</v>
       </c>
       <c r="D11" s="3">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44082.53685856481</v>
       </c>
@@ -591,13 +635,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="3">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44082.542625462964</v>
       </c>
@@ -608,13 +652,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="3">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44082.542900810186</v>
       </c>
@@ -625,27 +669,42 @@
         <v>6</v>
       </c>
       <c r="D14" s="3">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>44082.803657407407</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" ref="E3"/>
-    <hyperlink r:id="rId3" ref="E4"/>
-    <hyperlink r:id="rId4" ref="E5"/>
-    <hyperlink r:id="rId5" ref="E6"/>
-    <hyperlink r:id="rId6" ref="E7"/>
-    <hyperlink r:id="rId7" ref="E8"/>
-    <hyperlink r:id="rId8" ref="E10"/>
-    <hyperlink r:id="rId9" ref="E11"/>
-    <hyperlink r:id="rId10" ref="E12"/>
-    <hyperlink r:id="rId11" ref="E13"/>
-    <hyperlink r:id="rId12" ref="E14"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{38073037-D2F1-46C2-A8D1-119E13771EDA}"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>